--- a/el-genesis/checklist.xlsx
+++ b/el-genesis/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/el-genesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC76F3C4-F48C-E145-8582-791E2F4ABA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D292ECC-2EE4-9747-BB72-F49F3E525DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{65EF623E-CBD3-1249-935E-98838B76FCED}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{65EF623E-CBD3-1249-935E-98838B76FCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>year</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Divine Era: El Genesis</t>
+  </si>
+  <si>
+    <t>supplement</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,19 +519,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -536,19 +539,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -556,19 +559,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -576,22 +579,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -608,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -625,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -642,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/el-genesis/checklist.xlsx
+++ b/el-genesis/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/el-genesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D292ECC-2EE4-9747-BB72-F49F3E525DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F5E6FB-4B03-954C-A028-2997985243B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{65EF623E-CBD3-1249-935E-98838B76FCED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,19 +539,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -559,19 +559,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>

--- a/el-genesis/checklist.xlsx
+++ b/el-genesis/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/el-genesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F5E6FB-4B03-954C-A028-2997985243B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294DCC37-20E3-EE41-B404-F41098DFE719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{65EF623E-CBD3-1249-935E-98838B76FCED}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,96 +559,108 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1999</v>
+      </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1999</v>
+      </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2000</v>
+      </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="A2:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>